--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -497,6 +497,81 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -854,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P146"/>
+  <dimension ref="A1:P171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8160,6 +8235,1256 @@
         <v>197</v>
       </c>
     </row>
+    <row r="147" spans="1:16">
+      <c r="A147" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147">
+        <v>327.4</v>
+      </c>
+      <c r="C147">
+        <v>397</v>
+      </c>
+      <c r="D147">
+        <v>211</v>
+      </c>
+      <c r="E147">
+        <v>322</v>
+      </c>
+      <c r="F147">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="G147">
+        <v>126.2</v>
+      </c>
+      <c r="H147">
+        <v>20.9</v>
+      </c>
+      <c r="I147">
+        <v>176.8</v>
+      </c>
+      <c r="J147">
+        <v>477.5</v>
+      </c>
+      <c r="K147">
+        <v>1594.9</v>
+      </c>
+      <c r="L147">
+        <v>283</v>
+      </c>
+      <c r="M147">
+        <v>276</v>
+      </c>
+      <c r="N147">
+        <v>146</v>
+      </c>
+      <c r="O147">
+        <v>366</v>
+      </c>
+      <c r="P147">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148">
+        <v>326.4</v>
+      </c>
+      <c r="C148">
+        <v>396</v>
+      </c>
+      <c r="D148">
+        <v>209</v>
+      </c>
+      <c r="E148">
+        <v>321</v>
+      </c>
+      <c r="F148">
+        <v>93.8</v>
+      </c>
+      <c r="G148">
+        <v>125.9</v>
+      </c>
+      <c r="H148">
+        <v>20.8</v>
+      </c>
+      <c r="I148">
+        <v>174.2</v>
+      </c>
+      <c r="J148">
+        <v>477.9</v>
+      </c>
+      <c r="K148">
+        <v>1594.7</v>
+      </c>
+      <c r="L148">
+        <v>284.3</v>
+      </c>
+      <c r="M148">
+        <v>276</v>
+      </c>
+      <c r="N148">
+        <v>144</v>
+      </c>
+      <c r="O148">
+        <v>367</v>
+      </c>
+      <c r="P148">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149">
+        <v>325.8</v>
+      </c>
+      <c r="C149">
+        <v>396</v>
+      </c>
+      <c r="D149">
+        <v>208</v>
+      </c>
+      <c r="E149">
+        <v>321</v>
+      </c>
+      <c r="F149">
+        <v>93.8</v>
+      </c>
+      <c r="G149">
+        <v>127.3</v>
+      </c>
+      <c r="H149">
+        <v>19.8</v>
+      </c>
+      <c r="I149">
+        <v>170.9</v>
+      </c>
+      <c r="J149">
+        <v>481.8</v>
+      </c>
+      <c r="K149">
+        <v>1589.1</v>
+      </c>
+      <c r="L149">
+        <v>284.7</v>
+      </c>
+      <c r="M149">
+        <v>277</v>
+      </c>
+      <c r="N149">
+        <v>144</v>
+      </c>
+      <c r="O149">
+        <v>367</v>
+      </c>
+      <c r="P149">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150">
+        <v>322.9</v>
+      </c>
+      <c r="C150">
+        <v>393</v>
+      </c>
+      <c r="D150">
+        <v>206</v>
+      </c>
+      <c r="E150">
+        <v>319</v>
+      </c>
+      <c r="F150">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="G150">
+        <v>126.1</v>
+      </c>
+      <c r="H150">
+        <v>18.7</v>
+      </c>
+      <c r="I150">
+        <v>165.8</v>
+      </c>
+      <c r="J150">
+        <v>483.3</v>
+      </c>
+      <c r="K150">
+        <v>1580.2</v>
+      </c>
+      <c r="L150">
+        <v>280.9</v>
+      </c>
+      <c r="M150">
+        <v>276</v>
+      </c>
+      <c r="N150">
+        <v>140</v>
+      </c>
+      <c r="O150">
+        <v>364</v>
+      </c>
+      <c r="P150">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151">
+        <v>319.4</v>
+      </c>
+      <c r="C151">
+        <v>389</v>
+      </c>
+      <c r="D151">
+        <v>203</v>
+      </c>
+      <c r="E151">
+        <v>315</v>
+      </c>
+      <c r="F151">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="G151">
+        <v>124.6</v>
+      </c>
+      <c r="H151">
+        <v>16.9</v>
+      </c>
+      <c r="I151">
+        <v>160.4</v>
+      </c>
+      <c r="J151">
+        <v>482.4</v>
+      </c>
+      <c r="K151">
+        <v>1572.8</v>
+      </c>
+      <c r="L151">
+        <v>280.2</v>
+      </c>
+      <c r="M151">
+        <v>274</v>
+      </c>
+      <c r="N151">
+        <v>136</v>
+      </c>
+      <c r="O151">
+        <v>360</v>
+      </c>
+      <c r="P151">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152">
+        <v>319.3</v>
+      </c>
+      <c r="C152">
+        <v>391</v>
+      </c>
+      <c r="D152">
+        <v>203</v>
+      </c>
+      <c r="E152">
+        <v>315</v>
+      </c>
+      <c r="F152">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="G152">
+        <v>123.7</v>
+      </c>
+      <c r="H152">
+        <v>15.7</v>
+      </c>
+      <c r="I152">
+        <v>157.5</v>
+      </c>
+      <c r="J152">
+        <v>485</v>
+      </c>
+      <c r="K152">
+        <v>1578.5</v>
+      </c>
+      <c r="L152">
+        <v>280</v>
+      </c>
+      <c r="M152">
+        <v>275</v>
+      </c>
+      <c r="N152">
+        <v>135</v>
+      </c>
+      <c r="O152">
+        <v>363</v>
+      </c>
+      <c r="P152">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153">
+        <v>318.5</v>
+      </c>
+      <c r="C153">
+        <v>391</v>
+      </c>
+      <c r="D153">
+        <v>202</v>
+      </c>
+      <c r="E153">
+        <v>312</v>
+      </c>
+      <c r="F153">
+        <v>92.8</v>
+      </c>
+      <c r="G153">
+        <v>123.6</v>
+      </c>
+      <c r="H153">
+        <v>13.9</v>
+      </c>
+      <c r="I153">
+        <v>154.9</v>
+      </c>
+      <c r="J153">
+        <v>482.2</v>
+      </c>
+      <c r="K153">
+        <v>1564.3</v>
+      </c>
+      <c r="L153">
+        <v>279.9</v>
+      </c>
+      <c r="M153">
+        <v>277</v>
+      </c>
+      <c r="N153">
+        <v>136</v>
+      </c>
+      <c r="O153">
+        <v>362</v>
+      </c>
+      <c r="P153">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154">
+        <v>319.8</v>
+      </c>
+      <c r="C154">
+        <v>391</v>
+      </c>
+      <c r="D154">
+        <v>204</v>
+      </c>
+      <c r="E154">
+        <v>315</v>
+      </c>
+      <c r="F154">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="G154">
+        <v>120.4</v>
+      </c>
+      <c r="H154">
+        <v>17.3</v>
+      </c>
+      <c r="I154">
+        <v>157.1</v>
+      </c>
+      <c r="J154">
+        <v>486.1</v>
+      </c>
+      <c r="K154">
+        <v>1564.5</v>
+      </c>
+      <c r="L154">
+        <v>280.3</v>
+      </c>
+      <c r="M154">
+        <v>279</v>
+      </c>
+      <c r="N154">
+        <v>136</v>
+      </c>
+      <c r="O154">
+        <v>359</v>
+      </c>
+      <c r="P154">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155">
+        <v>317.1</v>
+      </c>
+      <c r="C155">
+        <v>387</v>
+      </c>
+      <c r="D155">
+        <v>201</v>
+      </c>
+      <c r="E155">
+        <v>311</v>
+      </c>
+      <c r="F155">
+        <v>91.7</v>
+      </c>
+      <c r="G155">
+        <v>118.7</v>
+      </c>
+      <c r="H155">
+        <v>12.9</v>
+      </c>
+      <c r="I155">
+        <v>154.6</v>
+      </c>
+      <c r="J155">
+        <v>478.2</v>
+      </c>
+      <c r="K155">
+        <v>1538.3</v>
+      </c>
+      <c r="L155">
+        <v>279.1</v>
+      </c>
+      <c r="M155">
+        <v>277</v>
+      </c>
+      <c r="N155">
+        <v>135</v>
+      </c>
+      <c r="O155">
+        <v>355</v>
+      </c>
+      <c r="P155">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156">
+        <v>321.7</v>
+      </c>
+      <c r="C156">
+        <v>392</v>
+      </c>
+      <c r="D156">
+        <v>205</v>
+      </c>
+      <c r="E156">
+        <v>313</v>
+      </c>
+      <c r="F156">
+        <v>91.5</v>
+      </c>
+      <c r="G156">
+        <v>118.5</v>
+      </c>
+      <c r="H156">
+        <v>13.4</v>
+      </c>
+      <c r="I156">
+        <v>160.8</v>
+      </c>
+      <c r="J156">
+        <v>475.9</v>
+      </c>
+      <c r="K156">
+        <v>1566.1</v>
+      </c>
+      <c r="L156">
+        <v>282.7</v>
+      </c>
+      <c r="M156">
+        <v>279</v>
+      </c>
+      <c r="N156">
+        <v>139</v>
+      </c>
+      <c r="O156">
+        <v>359</v>
+      </c>
+      <c r="P156">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157">
+        <v>323.5</v>
+      </c>
+      <c r="C157">
+        <v>396</v>
+      </c>
+      <c r="D157">
+        <v>205</v>
+      </c>
+      <c r="E157">
+        <v>314</v>
+      </c>
+      <c r="F157">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="G157">
+        <v>118.9</v>
+      </c>
+      <c r="H157">
+        <v>15.9</v>
+      </c>
+      <c r="I157">
+        <v>162</v>
+      </c>
+      <c r="J157">
+        <v>474.6</v>
+      </c>
+      <c r="K157">
+        <v>1589.1</v>
+      </c>
+      <c r="L157">
+        <v>285.9</v>
+      </c>
+      <c r="M157">
+        <v>281</v>
+      </c>
+      <c r="N157">
+        <v>141</v>
+      </c>
+      <c r="O157">
+        <v>364</v>
+      </c>
+      <c r="P157">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158">
+        <v>322.9</v>
+      </c>
+      <c r="C158">
+        <v>396</v>
+      </c>
+      <c r="D158">
+        <v>205</v>
+      </c>
+      <c r="E158">
+        <v>312</v>
+      </c>
+      <c r="F158">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="G158">
+        <v>120</v>
+      </c>
+      <c r="H158">
+        <v>14.1</v>
+      </c>
+      <c r="I158">
+        <v>159.7</v>
+      </c>
+      <c r="J158">
+        <v>473.3</v>
+      </c>
+      <c r="K158">
+        <v>1589</v>
+      </c>
+      <c r="L158">
+        <v>287</v>
+      </c>
+      <c r="M158">
+        <v>280</v>
+      </c>
+      <c r="N158">
+        <v>141</v>
+      </c>
+      <c r="O158">
+        <v>364</v>
+      </c>
+      <c r="P158">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159">
+        <v>323</v>
+      </c>
+      <c r="C159">
+        <v>395</v>
+      </c>
+      <c r="D159">
+        <v>204</v>
+      </c>
+      <c r="E159">
+        <v>313</v>
+      </c>
+      <c r="F159">
+        <v>91.2</v>
+      </c>
+      <c r="G159">
+        <v>120</v>
+      </c>
+      <c r="H159">
+        <v>15</v>
+      </c>
+      <c r="I159">
+        <v>159.7</v>
+      </c>
+      <c r="J159">
+        <v>475.8</v>
+      </c>
+      <c r="K159">
+        <v>1589.4</v>
+      </c>
+      <c r="L159">
+        <v>290.7</v>
+      </c>
+      <c r="M159">
+        <v>280</v>
+      </c>
+      <c r="N159">
+        <v>140</v>
+      </c>
+      <c r="O159">
+        <v>364</v>
+      </c>
+      <c r="P159">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160">
+        <v>325.4</v>
+      </c>
+      <c r="C160">
+        <v>399</v>
+      </c>
+      <c r="D160">
+        <v>204</v>
+      </c>
+      <c r="E160">
+        <v>317</v>
+      </c>
+      <c r="F160">
+        <v>91.3</v>
+      </c>
+      <c r="G160">
+        <v>119.9</v>
+      </c>
+      <c r="H160">
+        <v>15.6</v>
+      </c>
+      <c r="I160">
+        <v>161.9</v>
+      </c>
+      <c r="J160">
+        <v>481.1</v>
+      </c>
+      <c r="K160">
+        <v>1603.6</v>
+      </c>
+      <c r="L160">
+        <v>297.9</v>
+      </c>
+      <c r="M160">
+        <v>285</v>
+      </c>
+      <c r="N160">
+        <v>142</v>
+      </c>
+      <c r="O160">
+        <v>369</v>
+      </c>
+      <c r="P160">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161">
+        <v>324</v>
+      </c>
+      <c r="C161">
+        <v>398</v>
+      </c>
+      <c r="D161">
+        <v>203</v>
+      </c>
+      <c r="E161">
+        <v>315</v>
+      </c>
+      <c r="F161">
+        <v>90.3</v>
+      </c>
+      <c r="G161">
+        <v>119.4</v>
+      </c>
+      <c r="H161">
+        <v>14.9</v>
+      </c>
+      <c r="I161">
+        <v>160.7</v>
+      </c>
+      <c r="J161">
+        <v>478.4</v>
+      </c>
+      <c r="K161">
+        <v>1597.9</v>
+      </c>
+      <c r="L161">
+        <v>297.3</v>
+      </c>
+      <c r="M161">
+        <v>286</v>
+      </c>
+      <c r="N161">
+        <v>141</v>
+      </c>
+      <c r="O161">
+        <v>369</v>
+      </c>
+      <c r="P161">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162">
+        <v>323.7</v>
+      </c>
+      <c r="C162">
+        <v>396</v>
+      </c>
+      <c r="D162">
+        <v>204</v>
+      </c>
+      <c r="E162">
+        <v>316</v>
+      </c>
+      <c r="F162">
+        <v>91.2</v>
+      </c>
+      <c r="G162">
+        <v>119.8</v>
+      </c>
+      <c r="H162">
+        <v>16.3</v>
+      </c>
+      <c r="I162">
+        <v>162.2</v>
+      </c>
+      <c r="J162">
+        <v>479.7</v>
+      </c>
+      <c r="K162">
+        <v>1571.9</v>
+      </c>
+      <c r="L162">
+        <v>295.5</v>
+      </c>
+      <c r="M162">
+        <v>286</v>
+      </c>
+      <c r="N162">
+        <v>139</v>
+      </c>
+      <c r="O162">
+        <v>368</v>
+      </c>
+      <c r="P162">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" t="s">
+        <v>177</v>
+      </c>
+      <c r="B163">
+        <v>318.9</v>
+      </c>
+      <c r="C163">
+        <v>390</v>
+      </c>
+      <c r="D163">
+        <v>202</v>
+      </c>
+      <c r="E163">
+        <v>309</v>
+      </c>
+      <c r="F163">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="G163">
+        <v>120.1</v>
+      </c>
+      <c r="H163">
+        <v>11.5</v>
+      </c>
+      <c r="I163">
+        <v>158.2</v>
+      </c>
+      <c r="J163">
+        <v>468</v>
+      </c>
+      <c r="K163">
+        <v>1547</v>
+      </c>
+      <c r="L163">
+        <v>292.5</v>
+      </c>
+      <c r="M163">
+        <v>281</v>
+      </c>
+      <c r="N163">
+        <v>135</v>
+      </c>
+      <c r="O163">
+        <v>363</v>
+      </c>
+      <c r="P163">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" t="s">
+        <v>178</v>
+      </c>
+      <c r="B164">
+        <v>314.3</v>
+      </c>
+      <c r="C164">
+        <v>385</v>
+      </c>
+      <c r="D164">
+        <v>199</v>
+      </c>
+      <c r="E164">
+        <v>303</v>
+      </c>
+      <c r="F164">
+        <v>90</v>
+      </c>
+      <c r="G164">
+        <v>119.4</v>
+      </c>
+      <c r="H164">
+        <v>13.8</v>
+      </c>
+      <c r="I164">
+        <v>153.6</v>
+      </c>
+      <c r="J164">
+        <v>460.4</v>
+      </c>
+      <c r="K164">
+        <v>1537.7</v>
+      </c>
+      <c r="L164">
+        <v>287.8</v>
+      </c>
+      <c r="M164">
+        <v>273</v>
+      </c>
+      <c r="N164">
+        <v>131</v>
+      </c>
+      <c r="O164">
+        <v>358</v>
+      </c>
+      <c r="P164">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" t="s">
+        <v>179</v>
+      </c>
+      <c r="B165">
+        <v>316.4</v>
+      </c>
+      <c r="C165">
+        <v>387</v>
+      </c>
+      <c r="D165">
+        <v>202</v>
+      </c>
+      <c r="E165">
+        <v>304</v>
+      </c>
+      <c r="F165">
+        <v>89.8</v>
+      </c>
+      <c r="G165">
+        <v>119.4</v>
+      </c>
+      <c r="H165">
+        <v>12.2</v>
+      </c>
+      <c r="I165">
+        <v>156.1</v>
+      </c>
+      <c r="J165">
+        <v>460.4</v>
+      </c>
+      <c r="K165">
+        <v>1541.8</v>
+      </c>
+      <c r="L165">
+        <v>289.4</v>
+      </c>
+      <c r="M165">
+        <v>273</v>
+      </c>
+      <c r="N165">
+        <v>134</v>
+      </c>
+      <c r="O165">
+        <v>359</v>
+      </c>
+      <c r="P165">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166">
+        <v>317.1</v>
+      </c>
+      <c r="C166">
+        <v>386</v>
+      </c>
+      <c r="D166">
+        <v>203</v>
+      </c>
+      <c r="E166">
+        <v>306</v>
+      </c>
+      <c r="F166">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="G166">
+        <v>119.1</v>
+      </c>
+      <c r="H166">
+        <v>13.9</v>
+      </c>
+      <c r="I166">
+        <v>158.8</v>
+      </c>
+      <c r="J166">
+        <v>461.3</v>
+      </c>
+      <c r="K166">
+        <v>1538.1</v>
+      </c>
+      <c r="L166">
+        <v>287.1</v>
+      </c>
+      <c r="M166">
+        <v>271</v>
+      </c>
+      <c r="N166">
+        <v>136</v>
+      </c>
+      <c r="O166">
+        <v>357</v>
+      </c>
+      <c r="P166">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167">
+        <v>316.4</v>
+      </c>
+      <c r="C167">
+        <v>382</v>
+      </c>
+      <c r="D167">
+        <v>203</v>
+      </c>
+      <c r="E167">
+        <v>308</v>
+      </c>
+      <c r="F167">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="G167">
+        <v>118.8</v>
+      </c>
+      <c r="H167">
+        <v>16.9</v>
+      </c>
+      <c r="I167">
+        <v>160.3</v>
+      </c>
+      <c r="J167">
+        <v>462.8</v>
+      </c>
+      <c r="K167">
+        <v>1508.6</v>
+      </c>
+      <c r="L167">
+        <v>282.6</v>
+      </c>
+      <c r="M167">
+        <v>269</v>
+      </c>
+      <c r="N167">
+        <v>136</v>
+      </c>
+      <c r="O167">
+        <v>352</v>
+      </c>
+      <c r="P167">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168">
+        <v>313</v>
+      </c>
+      <c r="C168">
+        <v>381</v>
+      </c>
+      <c r="D168">
+        <v>199</v>
+      </c>
+      <c r="E168">
+        <v>303</v>
+      </c>
+      <c r="F168">
+        <v>89.8</v>
+      </c>
+      <c r="G168">
+        <v>117</v>
+      </c>
+      <c r="H168">
+        <v>19.1</v>
+      </c>
+      <c r="I168">
+        <v>157.2</v>
+      </c>
+      <c r="J168">
+        <v>455.9</v>
+      </c>
+      <c r="K168">
+        <v>1512.6</v>
+      </c>
+      <c r="L168">
+        <v>282.5</v>
+      </c>
+      <c r="M168">
+        <v>272</v>
+      </c>
+      <c r="N168">
+        <v>136</v>
+      </c>
+      <c r="O168">
+        <v>352</v>
+      </c>
+      <c r="P168">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169">
+        <v>312.9</v>
+      </c>
+      <c r="C169">
+        <v>381</v>
+      </c>
+      <c r="D169">
+        <v>200</v>
+      </c>
+      <c r="E169">
+        <v>303</v>
+      </c>
+      <c r="F169">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="G169">
+        <v>117.7</v>
+      </c>
+      <c r="H169">
+        <v>14.6</v>
+      </c>
+      <c r="I169">
+        <v>157.6</v>
+      </c>
+      <c r="J169">
+        <v>458.1</v>
+      </c>
+      <c r="K169">
+        <v>1493</v>
+      </c>
+      <c r="L169">
+        <v>282.8</v>
+      </c>
+      <c r="M169">
+        <v>271</v>
+      </c>
+      <c r="N169">
+        <v>136</v>
+      </c>
+      <c r="O169">
+        <v>355</v>
+      </c>
+      <c r="P169">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170">
+        <v>312.8</v>
+      </c>
+      <c r="C170">
+        <v>381</v>
+      </c>
+      <c r="D170">
+        <v>199</v>
+      </c>
+      <c r="E170">
+        <v>304</v>
+      </c>
+      <c r="F170">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="G170">
+        <v>117</v>
+      </c>
+      <c r="H170">
+        <v>12.5</v>
+      </c>
+      <c r="I170">
+        <v>156.4</v>
+      </c>
+      <c r="J170">
+        <v>461.6</v>
+      </c>
+      <c r="K170">
+        <v>1481.6</v>
+      </c>
+      <c r="L170">
+        <v>283.2</v>
+      </c>
+      <c r="M170">
+        <v>271</v>
+      </c>
+      <c r="N170">
+        <v>137</v>
+      </c>
+      <c r="O170">
+        <v>354</v>
+      </c>
+      <c r="P170">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171">
+        <v>310.4</v>
+      </c>
+      <c r="C171">
+        <v>379</v>
+      </c>
+      <c r="D171">
+        <v>196</v>
+      </c>
+      <c r="E171">
+        <v>302</v>
+      </c>
+      <c r="F171">
+        <v>88.2</v>
+      </c>
+      <c r="G171">
+        <v>115.7</v>
+      </c>
+      <c r="H171">
+        <v>15.5</v>
+      </c>
+      <c r="I171">
+        <v>154.3</v>
+      </c>
+      <c r="J171">
+        <v>460.6</v>
+      </c>
+      <c r="K171">
+        <v>1486.7</v>
+      </c>
+      <c r="L171">
+        <v>282.8</v>
+      </c>
+      <c r="M171">
+        <v>270</v>
+      </c>
+      <c r="N171">
+        <v>135</v>
+      </c>
+      <c r="O171">
+        <v>350</v>
+      </c>
+      <c r="P171">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,18 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P171"/>
+  <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9485,6 +9497,206 @@
         <v>175</v>
       </c>
     </row>
+    <row r="172" spans="1:16">
+      <c r="A172" t="s">
+        <v>186</v>
+      </c>
+      <c r="B172">
+        <v>307.3</v>
+      </c>
+      <c r="C172">
+        <v>374</v>
+      </c>
+      <c r="D172">
+        <v>194</v>
+      </c>
+      <c r="E172">
+        <v>300</v>
+      </c>
+      <c r="F172">
+        <v>85.8</v>
+      </c>
+      <c r="G172">
+        <v>114.7</v>
+      </c>
+      <c r="H172">
+        <v>15.8</v>
+      </c>
+      <c r="I172">
+        <v>151.7</v>
+      </c>
+      <c r="J172">
+        <v>457</v>
+      </c>
+      <c r="K172">
+        <v>1476.9</v>
+      </c>
+      <c r="L172">
+        <v>282.7</v>
+      </c>
+      <c r="M172">
+        <v>269</v>
+      </c>
+      <c r="N172">
+        <v>133</v>
+      </c>
+      <c r="O172">
+        <v>341</v>
+      </c>
+      <c r="P172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173">
+        <v>310.4</v>
+      </c>
+      <c r="C173">
+        <v>378</v>
+      </c>
+      <c r="D173">
+        <v>195</v>
+      </c>
+      <c r="E173">
+        <v>303</v>
+      </c>
+      <c r="F173">
+        <v>85.7</v>
+      </c>
+      <c r="G173">
+        <v>113.4</v>
+      </c>
+      <c r="H173">
+        <v>16.2</v>
+      </c>
+      <c r="I173">
+        <v>154.4</v>
+      </c>
+      <c r="J173">
+        <v>461.6</v>
+      </c>
+      <c r="K173">
+        <v>1504</v>
+      </c>
+      <c r="L173">
+        <v>290</v>
+      </c>
+      <c r="M173">
+        <v>272</v>
+      </c>
+      <c r="N173">
+        <v>136</v>
+      </c>
+      <c r="O173">
+        <v>342</v>
+      </c>
+      <c r="P173">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174">
+        <v>313.6</v>
+      </c>
+      <c r="C174">
+        <v>382</v>
+      </c>
+      <c r="D174">
+        <v>197</v>
+      </c>
+      <c r="E174">
+        <v>306</v>
+      </c>
+      <c r="F174">
+        <v>85.2</v>
+      </c>
+      <c r="G174">
+        <v>114.1</v>
+      </c>
+      <c r="H174">
+        <v>14.2</v>
+      </c>
+      <c r="I174">
+        <v>156.7</v>
+      </c>
+      <c r="J174">
+        <v>465.6</v>
+      </c>
+      <c r="K174">
+        <v>1528.4</v>
+      </c>
+      <c r="L174">
+        <v>294.1</v>
+      </c>
+      <c r="M174">
+        <v>274</v>
+      </c>
+      <c r="N174">
+        <v>140</v>
+      </c>
+      <c r="O174">
+        <v>347</v>
+      </c>
+      <c r="P174">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175" t="s">
+        <v>189</v>
+      </c>
+      <c r="B175">
+        <v>310.4</v>
+      </c>
+      <c r="C175">
+        <v>380</v>
+      </c>
+      <c r="D175">
+        <v>194</v>
+      </c>
+      <c r="E175">
+        <v>301</v>
+      </c>
+      <c r="F175">
+        <v>84.8</v>
+      </c>
+      <c r="G175">
+        <v>113.2</v>
+      </c>
+      <c r="H175">
+        <v>13.8</v>
+      </c>
+      <c r="I175">
+        <v>151.8</v>
+      </c>
+      <c r="J175">
+        <v>460.2</v>
+      </c>
+      <c r="K175">
+        <v>1538.2</v>
+      </c>
+      <c r="L175">
+        <v>287.5</v>
+      </c>
+      <c r="M175">
+        <v>273</v>
+      </c>
+      <c r="N175">
+        <v>137</v>
+      </c>
+      <c r="O175">
+        <v>345</v>
+      </c>
+      <c r="P175">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,21 @@
   </si>
   <si>
     <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P175"/>
+  <dimension ref="A1:P180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9697,6 +9712,256 @@
         <v>172</v>
       </c>
     </row>
+    <row r="176" spans="1:16">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176">
+        <v>312.2</v>
+      </c>
+      <c r="C176">
+        <v>381</v>
+      </c>
+      <c r="D176">
+        <v>196</v>
+      </c>
+      <c r="E176">
+        <v>305</v>
+      </c>
+      <c r="F176">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="G176">
+        <v>113.1</v>
+      </c>
+      <c r="H176">
+        <v>13.7</v>
+      </c>
+      <c r="I176">
+        <v>153.6</v>
+      </c>
+      <c r="J176">
+        <v>468</v>
+      </c>
+      <c r="K176">
+        <v>1483</v>
+      </c>
+      <c r="L176">
+        <v>291.4</v>
+      </c>
+      <c r="M176">
+        <v>278</v>
+      </c>
+      <c r="N176">
+        <v>140</v>
+      </c>
+      <c r="O176">
+        <v>348</v>
+      </c>
+      <c r="P176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>315.5</v>
+      </c>
+      <c r="C177">
+        <v>384</v>
+      </c>
+      <c r="D177">
+        <v>200</v>
+      </c>
+      <c r="E177">
+        <v>308</v>
+      </c>
+      <c r="F177">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="G177">
+        <v>115.4</v>
+      </c>
+      <c r="H177">
+        <v>13</v>
+      </c>
+      <c r="I177">
+        <v>156.4</v>
+      </c>
+      <c r="J177">
+        <v>472.9</v>
+      </c>
+      <c r="K177">
+        <v>1501.1</v>
+      </c>
+      <c r="L177">
+        <v>295.1</v>
+      </c>
+      <c r="M177">
+        <v>281</v>
+      </c>
+      <c r="N177">
+        <v>145</v>
+      </c>
+      <c r="O177">
+        <v>347</v>
+      </c>
+      <c r="P177">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178">
+        <v>312.3</v>
+      </c>
+      <c r="C178">
+        <v>380</v>
+      </c>
+      <c r="D178">
+        <v>199</v>
+      </c>
+      <c r="E178">
+        <v>305</v>
+      </c>
+      <c r="F178">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="G178">
+        <v>116.9</v>
+      </c>
+      <c r="H178">
+        <v>16.8</v>
+      </c>
+      <c r="I178">
+        <v>152.1</v>
+      </c>
+      <c r="J178">
+        <v>473.2</v>
+      </c>
+      <c r="K178">
+        <v>1489.8</v>
+      </c>
+      <c r="L178">
+        <v>291.4</v>
+      </c>
+      <c r="M178">
+        <v>277</v>
+      </c>
+      <c r="N178">
+        <v>143</v>
+      </c>
+      <c r="O178">
+        <v>341</v>
+      </c>
+      <c r="P178">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179">
+        <v>312.2</v>
+      </c>
+      <c r="C179">
+        <v>381</v>
+      </c>
+      <c r="D179">
+        <v>198</v>
+      </c>
+      <c r="E179">
+        <v>306</v>
+      </c>
+      <c r="F179">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="G179">
+        <v>116.5</v>
+      </c>
+      <c r="H179">
+        <v>12.8</v>
+      </c>
+      <c r="I179">
+        <v>148.6</v>
+      </c>
+      <c r="J179">
+        <v>481.2</v>
+      </c>
+      <c r="K179">
+        <v>1495.8</v>
+      </c>
+      <c r="L179">
+        <v>290.3</v>
+      </c>
+      <c r="M179">
+        <v>279</v>
+      </c>
+      <c r="N179">
+        <v>142</v>
+      </c>
+      <c r="O179">
+        <v>344</v>
+      </c>
+      <c r="P179">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" t="s">
+        <v>194</v>
+      </c>
+      <c r="B180">
+        <v>311.8</v>
+      </c>
+      <c r="C180">
+        <v>381</v>
+      </c>
+      <c r="D180">
+        <v>197</v>
+      </c>
+      <c r="E180">
+        <v>307</v>
+      </c>
+      <c r="F180">
+        <v>83.7</v>
+      </c>
+      <c r="G180">
+        <v>117.4</v>
+      </c>
+      <c r="H180">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I180">
+        <v>147.9</v>
+      </c>
+      <c r="J180">
+        <v>486.9</v>
+      </c>
+      <c r="K180">
+        <v>1512.2</v>
+      </c>
+      <c r="L180">
+        <v>288.4</v>
+      </c>
+      <c r="M180">
+        <v>279</v>
+      </c>
+      <c r="N180">
+        <v>141</v>
+      </c>
+      <c r="O180">
+        <v>343</v>
+      </c>
+      <c r="P180">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,21 @@
   </si>
   <si>
     <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9962,6 +9977,256 @@
         <v>169</v>
       </c>
     </row>
+    <row r="181" spans="1:16">
+      <c r="A181" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181">
+        <v>322.4</v>
+      </c>
+      <c r="C181">
+        <v>395</v>
+      </c>
+      <c r="D181">
+        <v>205</v>
+      </c>
+      <c r="E181">
+        <v>317</v>
+      </c>
+      <c r="F181">
+        <v>85.2</v>
+      </c>
+      <c r="G181">
+        <v>120.9</v>
+      </c>
+      <c r="H181">
+        <v>12</v>
+      </c>
+      <c r="I181">
+        <v>154.8</v>
+      </c>
+      <c r="J181">
+        <v>498.1</v>
+      </c>
+      <c r="K181">
+        <v>1575.9</v>
+      </c>
+      <c r="L181">
+        <v>298.9</v>
+      </c>
+      <c r="M181">
+        <v>291</v>
+      </c>
+      <c r="N181">
+        <v>150</v>
+      </c>
+      <c r="O181">
+        <v>357</v>
+      </c>
+      <c r="P181">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182" t="s">
+        <v>196</v>
+      </c>
+      <c r="B182">
+        <v>320.6</v>
+      </c>
+      <c r="C182">
+        <v>393</v>
+      </c>
+      <c r="D182">
+        <v>205</v>
+      </c>
+      <c r="E182">
+        <v>312</v>
+      </c>
+      <c r="F182">
+        <v>85.2</v>
+      </c>
+      <c r="G182">
+        <v>119.8</v>
+      </c>
+      <c r="H182">
+        <v>16.1</v>
+      </c>
+      <c r="I182">
+        <v>151.9</v>
+      </c>
+      <c r="J182">
+        <v>487.7</v>
+      </c>
+      <c r="K182">
+        <v>1596.5</v>
+      </c>
+      <c r="L182">
+        <v>295.9</v>
+      </c>
+      <c r="M182">
+        <v>288</v>
+      </c>
+      <c r="N182">
+        <v>147</v>
+      </c>
+      <c r="O182">
+        <v>352</v>
+      </c>
+      <c r="P182">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183">
+        <v>321.8</v>
+      </c>
+      <c r="C183">
+        <v>394</v>
+      </c>
+      <c r="D183">
+        <v>205</v>
+      </c>
+      <c r="E183">
+        <v>314</v>
+      </c>
+      <c r="F183">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="G183">
+        <v>118.9</v>
+      </c>
+      <c r="H183">
+        <v>14.7</v>
+      </c>
+      <c r="I183">
+        <v>152</v>
+      </c>
+      <c r="J183">
+        <v>492.7</v>
+      </c>
+      <c r="K183">
+        <v>1612.3</v>
+      </c>
+      <c r="L183">
+        <v>295.7</v>
+      </c>
+      <c r="M183">
+        <v>290</v>
+      </c>
+      <c r="N183">
+        <v>146</v>
+      </c>
+      <c r="O183">
+        <v>354</v>
+      </c>
+      <c r="P183">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" t="s">
+        <v>198</v>
+      </c>
+      <c r="B184">
+        <v>317.3</v>
+      </c>
+      <c r="C184">
+        <v>390</v>
+      </c>
+      <c r="D184">
+        <v>198</v>
+      </c>
+      <c r="E184">
+        <v>313</v>
+      </c>
+      <c r="F184">
+        <v>84</v>
+      </c>
+      <c r="G184">
+        <v>115</v>
+      </c>
+      <c r="H184">
+        <v>11.6</v>
+      </c>
+      <c r="I184">
+        <v>147.1</v>
+      </c>
+      <c r="J184">
+        <v>501.2</v>
+      </c>
+      <c r="K184">
+        <v>1598.2</v>
+      </c>
+      <c r="L184">
+        <v>294.3</v>
+      </c>
+      <c r="M184">
+        <v>286</v>
+      </c>
+      <c r="N184">
+        <v>141</v>
+      </c>
+      <c r="O184">
+        <v>351</v>
+      </c>
+      <c r="P184">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" t="s">
+        <v>199</v>
+      </c>
+      <c r="B185">
+        <v>319.9</v>
+      </c>
+      <c r="C185">
+        <v>394</v>
+      </c>
+      <c r="D185">
+        <v>199</v>
+      </c>
+      <c r="E185">
+        <v>318</v>
+      </c>
+      <c r="F185">
+        <v>85.3</v>
+      </c>
+      <c r="G185">
+        <v>119.1</v>
+      </c>
+      <c r="H185">
+        <v>12.8</v>
+      </c>
+      <c r="I185">
+        <v>148.3</v>
+      </c>
+      <c r="J185">
+        <v>510.4</v>
+      </c>
+      <c r="K185">
+        <v>1619</v>
+      </c>
+      <c r="L185">
+        <v>297.3</v>
+      </c>
+      <c r="M185">
+        <v>289</v>
+      </c>
+      <c r="N185">
+        <v>141</v>
+      </c>
+      <c r="O185">
+        <v>355</v>
+      </c>
+      <c r="P185">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Serie</t>
   </si>
@@ -614,6 +614,21 @@
   </si>
   <si>
     <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -971,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:P190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10227,6 +10242,256 @@
         <v>170</v>
       </c>
     </row>
+    <row r="186" spans="1:16">
+      <c r="A186" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186">
+        <v>322.3</v>
+      </c>
+      <c r="C186">
+        <v>398</v>
+      </c>
+      <c r="D186">
+        <v>199</v>
+      </c>
+      <c r="E186">
+        <v>323</v>
+      </c>
+      <c r="F186">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="G186">
+        <v>118.3</v>
+      </c>
+      <c r="H186">
+        <v>11.7</v>
+      </c>
+      <c r="I186">
+        <v>151.6</v>
+      </c>
+      <c r="J186">
+        <v>517.1</v>
+      </c>
+      <c r="K186">
+        <v>1631.1</v>
+      </c>
+      <c r="L186">
+        <v>298.5</v>
+      </c>
+      <c r="M186">
+        <v>293</v>
+      </c>
+      <c r="N186">
+        <v>142</v>
+      </c>
+      <c r="O186">
+        <v>359</v>
+      </c>
+      <c r="P186">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" t="s">
+        <v>201</v>
+      </c>
+      <c r="B187">
+        <v>323</v>
+      </c>
+      <c r="C187">
+        <v>399</v>
+      </c>
+      <c r="D187">
+        <v>199</v>
+      </c>
+      <c r="E187">
+        <v>325</v>
+      </c>
+      <c r="F187">
+        <v>84.2</v>
+      </c>
+      <c r="G187">
+        <v>117.7</v>
+      </c>
+      <c r="H187">
+        <v>7.3</v>
+      </c>
+      <c r="I187">
+        <v>152.5</v>
+      </c>
+      <c r="J187">
+        <v>518.6</v>
+      </c>
+      <c r="K187">
+        <v>1597.4</v>
+      </c>
+      <c r="L187">
+        <v>302.1</v>
+      </c>
+      <c r="M187">
+        <v>298</v>
+      </c>
+      <c r="N187">
+        <v>143</v>
+      </c>
+      <c r="O187">
+        <v>361</v>
+      </c>
+      <c r="P187">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="A188" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188">
+        <v>321.5</v>
+      </c>
+      <c r="C188">
+        <v>396</v>
+      </c>
+      <c r="D188">
+        <v>203</v>
+      </c>
+      <c r="E188">
+        <v>320</v>
+      </c>
+      <c r="F188">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="G188">
+        <v>119.4</v>
+      </c>
+      <c r="H188">
+        <v>12</v>
+      </c>
+      <c r="I188">
+        <v>149.7</v>
+      </c>
+      <c r="J188">
+        <v>506.1</v>
+      </c>
+      <c r="K188">
+        <v>1589.1</v>
+      </c>
+      <c r="L188">
+        <v>297.8</v>
+      </c>
+      <c r="M188">
+        <v>299</v>
+      </c>
+      <c r="N188">
+        <v>144</v>
+      </c>
+      <c r="O188">
+        <v>356</v>
+      </c>
+      <c r="P188">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" t="s">
+        <v>203</v>
+      </c>
+      <c r="B189">
+        <v>324.4</v>
+      </c>
+      <c r="C189">
+        <v>399</v>
+      </c>
+      <c r="D189">
+        <v>204</v>
+      </c>
+      <c r="E189">
+        <v>318</v>
+      </c>
+      <c r="F189">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="G189">
+        <v>119.4</v>
+      </c>
+      <c r="H189">
+        <v>13.5</v>
+      </c>
+      <c r="I189">
+        <v>153.2</v>
+      </c>
+      <c r="J189">
+        <v>507.1</v>
+      </c>
+      <c r="K189">
+        <v>1606.6</v>
+      </c>
+      <c r="L189">
+        <v>304.2</v>
+      </c>
+      <c r="M189">
+        <v>301</v>
+      </c>
+      <c r="N189">
+        <v>150</v>
+      </c>
+      <c r="O189">
+        <v>360</v>
+      </c>
+      <c r="P189">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16">
+      <c r="A190" t="s">
+        <v>204</v>
+      </c>
+      <c r="B190">
+        <v>329.9</v>
+      </c>
+      <c r="C190">
+        <v>403</v>
+      </c>
+      <c r="D190">
+        <v>207</v>
+      </c>
+      <c r="E190">
+        <v>326</v>
+      </c>
+      <c r="F190">
+        <v>88.2</v>
+      </c>
+      <c r="G190">
+        <v>121.2</v>
+      </c>
+      <c r="H190">
+        <v>15.8</v>
+      </c>
+      <c r="I190">
+        <v>160.7</v>
+      </c>
+      <c r="J190">
+        <v>516.8</v>
+      </c>
+      <c r="K190">
+        <v>1610.6</v>
+      </c>
+      <c r="L190">
+        <v>309.5</v>
+      </c>
+      <c r="M190">
+        <v>302</v>
+      </c>
+      <c r="N190">
+        <v>155</v>
+      </c>
+      <c r="O190">
+        <v>363</v>
+      </c>
+      <c r="P190">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Serie</t>
   </si>
@@ -629,6 +629,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P190"/>
+  <dimension ref="A1:P195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10492,6 +10507,256 @@
         <v>186</v>
       </c>
     </row>
+    <row r="191" spans="1:16">
+      <c r="A191" t="s">
+        <v>205</v>
+      </c>
+      <c r="B191">
+        <v>330.2</v>
+      </c>
+      <c r="C191">
+        <v>405</v>
+      </c>
+      <c r="D191">
+        <v>206</v>
+      </c>
+      <c r="E191">
+        <v>326</v>
+      </c>
+      <c r="F191">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="G191">
+        <v>118.8</v>
+      </c>
+      <c r="H191">
+        <v>15.4</v>
+      </c>
+      <c r="I191">
+        <v>162.4</v>
+      </c>
+      <c r="J191">
+        <v>511.5</v>
+      </c>
+      <c r="K191">
+        <v>1612.6</v>
+      </c>
+      <c r="L191">
+        <v>310.3</v>
+      </c>
+      <c r="M191">
+        <v>301</v>
+      </c>
+      <c r="N191">
+        <v>156</v>
+      </c>
+      <c r="O191">
+        <v>364</v>
+      </c>
+      <c r="P191">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192" t="s">
+        <v>206</v>
+      </c>
+      <c r="B192">
+        <v>328.4</v>
+      </c>
+      <c r="C192">
+        <v>400</v>
+      </c>
+      <c r="D192">
+        <v>208</v>
+      </c>
+      <c r="E192">
+        <v>325</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192">
+        <v>119.5</v>
+      </c>
+      <c r="H192">
+        <v>12.3</v>
+      </c>
+      <c r="I192">
+        <v>162.5</v>
+      </c>
+      <c r="J192">
+        <v>508.4</v>
+      </c>
+      <c r="K192">
+        <v>1591.6</v>
+      </c>
+      <c r="L192">
+        <v>309</v>
+      </c>
+      <c r="M192">
+        <v>297</v>
+      </c>
+      <c r="N192">
+        <v>153</v>
+      </c>
+      <c r="O192">
+        <v>358</v>
+      </c>
+      <c r="P192">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" t="s">
+        <v>207</v>
+      </c>
+      <c r="B193">
+        <v>333</v>
+      </c>
+      <c r="C193">
+        <v>402</v>
+      </c>
+      <c r="D193">
+        <v>217</v>
+      </c>
+      <c r="E193">
+        <v>328</v>
+      </c>
+      <c r="F193">
+        <v>87.7</v>
+      </c>
+      <c r="G193">
+        <v>121.6</v>
+      </c>
+      <c r="H193">
+        <v>12.1</v>
+      </c>
+      <c r="I193">
+        <v>165</v>
+      </c>
+      <c r="J193">
+        <v>511.4</v>
+      </c>
+      <c r="K193">
+        <v>1588.1</v>
+      </c>
+      <c r="L193">
+        <v>310</v>
+      </c>
+      <c r="M193">
+        <v>298</v>
+      </c>
+      <c r="N193">
+        <v>156</v>
+      </c>
+      <c r="O193">
+        <v>363</v>
+      </c>
+      <c r="P193">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16">
+      <c r="A194" t="s">
+        <v>208</v>
+      </c>
+      <c r="B194">
+        <v>325.9</v>
+      </c>
+      <c r="C194">
+        <v>396</v>
+      </c>
+      <c r="D194">
+        <v>211</v>
+      </c>
+      <c r="E194">
+        <v>318</v>
+      </c>
+      <c r="F194">
+        <v>87.7</v>
+      </c>
+      <c r="G194">
+        <v>120.9</v>
+      </c>
+      <c r="H194">
+        <v>10.6</v>
+      </c>
+      <c r="I194">
+        <v>158.1</v>
+      </c>
+      <c r="J194">
+        <v>499.1</v>
+      </c>
+      <c r="K194">
+        <v>1582.1</v>
+      </c>
+      <c r="L194">
+        <v>303.1</v>
+      </c>
+      <c r="M194">
+        <v>289</v>
+      </c>
+      <c r="N194">
+        <v>152</v>
+      </c>
+      <c r="O194">
+        <v>356</v>
+      </c>
+      <c r="P194">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" t="s">
+        <v>209</v>
+      </c>
+      <c r="B195">
+        <v>326.4</v>
+      </c>
+      <c r="C195">
+        <v>396</v>
+      </c>
+      <c r="D195">
+        <v>212</v>
+      </c>
+      <c r="E195">
+        <v>319</v>
+      </c>
+      <c r="F195">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="G195">
+        <v>121.3</v>
+      </c>
+      <c r="H195">
+        <v>10.2</v>
+      </c>
+      <c r="I195">
+        <v>157.1</v>
+      </c>
+      <c r="J195">
+        <v>505.4</v>
+      </c>
+      <c r="K195">
+        <v>1602.4</v>
+      </c>
+      <c r="L195">
+        <v>302.3</v>
+      </c>
+      <c r="M195">
+        <v>286</v>
+      </c>
+      <c r="N195">
+        <v>153</v>
+      </c>
+      <c r="O195">
+        <v>356</v>
+      </c>
+      <c r="P195">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -644,6 +644,33 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P195"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10757,6 +10784,456 @@
         <v>171</v>
       </c>
     </row>
+    <row r="196" spans="1:16">
+      <c r="A196" t="s">
+        <v>210</v>
+      </c>
+      <c r="B196">
+        <v>332.3</v>
+      </c>
+      <c r="C196">
+        <v>400</v>
+      </c>
+      <c r="D196">
+        <v>220</v>
+      </c>
+      <c r="E196">
+        <v>324</v>
+      </c>
+      <c r="F196">
+        <v>90.2</v>
+      </c>
+      <c r="G196">
+        <v>124.9</v>
+      </c>
+      <c r="H196">
+        <v>17</v>
+      </c>
+      <c r="I196">
+        <v>159.9</v>
+      </c>
+      <c r="J196">
+        <v>511.4</v>
+      </c>
+      <c r="K196">
+        <v>1617.4</v>
+      </c>
+      <c r="L196">
+        <v>307.6</v>
+      </c>
+      <c r="M196">
+        <v>289</v>
+      </c>
+      <c r="N196">
+        <v>158</v>
+      </c>
+      <c r="O196">
+        <v>359</v>
+      </c>
+      <c r="P196">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197" t="s">
+        <v>211</v>
+      </c>
+      <c r="B197">
+        <v>331.3</v>
+      </c>
+      <c r="C197">
+        <v>400</v>
+      </c>
+      <c r="D197">
+        <v>218</v>
+      </c>
+      <c r="E197">
+        <v>321</v>
+      </c>
+      <c r="F197">
+        <v>88.8</v>
+      </c>
+      <c r="G197">
+        <v>123.6</v>
+      </c>
+      <c r="H197">
+        <v>14.8</v>
+      </c>
+      <c r="I197">
+        <v>159.2</v>
+      </c>
+      <c r="J197">
+        <v>508.7</v>
+      </c>
+      <c r="K197">
+        <v>1624.5</v>
+      </c>
+      <c r="L197">
+        <v>306.1</v>
+      </c>
+      <c r="M197">
+        <v>288</v>
+      </c>
+      <c r="N197">
+        <v>159</v>
+      </c>
+      <c r="O197">
+        <v>360</v>
+      </c>
+      <c r="P197">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="A198" t="s">
+        <v>212</v>
+      </c>
+      <c r="B198">
+        <v>330.5</v>
+      </c>
+      <c r="C198">
+        <v>397</v>
+      </c>
+      <c r="D198">
+        <v>218</v>
+      </c>
+      <c r="E198">
+        <v>322</v>
+      </c>
+      <c r="F198">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="G198">
+        <v>123.8</v>
+      </c>
+      <c r="H198">
+        <v>15.8</v>
+      </c>
+      <c r="I198">
+        <v>155.9</v>
+      </c>
+      <c r="J198">
+        <v>518.5</v>
+      </c>
+      <c r="K198">
+        <v>1629</v>
+      </c>
+      <c r="L198">
+        <v>303.9</v>
+      </c>
+      <c r="M198">
+        <v>288</v>
+      </c>
+      <c r="N198">
+        <v>159</v>
+      </c>
+      <c r="O198">
+        <v>357</v>
+      </c>
+      <c r="P198">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" t="s">
+        <v>213</v>
+      </c>
+      <c r="B199">
+        <v>325.1</v>
+      </c>
+      <c r="C199">
+        <v>393</v>
+      </c>
+      <c r="D199">
+        <v>207</v>
+      </c>
+      <c r="E199">
+        <v>317</v>
+      </c>
+      <c r="F199">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="G199">
+        <v>121.6</v>
+      </c>
+      <c r="H199">
+        <v>11.3</v>
+      </c>
+      <c r="I199">
+        <v>151.5</v>
+      </c>
+      <c r="J199">
+        <v>515.2</v>
+      </c>
+      <c r="K199">
+        <v>1628.8</v>
+      </c>
+      <c r="L199">
+        <v>300.2</v>
+      </c>
+      <c r="M199">
+        <v>287</v>
+      </c>
+      <c r="N199">
+        <v>158</v>
+      </c>
+      <c r="O199">
+        <v>353</v>
+      </c>
+      <c r="P199">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" t="s">
+        <v>214</v>
+      </c>
+      <c r="B200">
+        <v>328.2</v>
+      </c>
+      <c r="C200">
+        <v>397</v>
+      </c>
+      <c r="D200">
+        <v>209</v>
+      </c>
+      <c r="E200">
+        <v>322</v>
+      </c>
+      <c r="F200">
+        <v>88.2</v>
+      </c>
+      <c r="G200">
+        <v>121.5</v>
+      </c>
+      <c r="H200">
+        <v>16</v>
+      </c>
+      <c r="I200">
+        <v>153.4</v>
+      </c>
+      <c r="J200">
+        <v>523.1</v>
+      </c>
+      <c r="K200">
+        <v>1643.7</v>
+      </c>
+      <c r="L200">
+        <v>302.8</v>
+      </c>
+      <c r="M200">
+        <v>291</v>
+      </c>
+      <c r="N200">
+        <v>161</v>
+      </c>
+      <c r="O200">
+        <v>356</v>
+      </c>
+      <c r="P200">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" t="s">
+        <v>215</v>
+      </c>
+      <c r="B201">
+        <v>322.8</v>
+      </c>
+      <c r="C201">
+        <v>393</v>
+      </c>
+      <c r="D201">
+        <v>202</v>
+      </c>
+      <c r="E201">
+        <v>315</v>
+      </c>
+      <c r="F201">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="G201">
+        <v>118.2</v>
+      </c>
+      <c r="H201">
+        <v>19.2</v>
+      </c>
+      <c r="I201">
+        <v>147.5</v>
+      </c>
+      <c r="J201">
+        <v>515.6</v>
+      </c>
+      <c r="K201">
+        <v>1638.7</v>
+      </c>
+      <c r="L201">
+        <v>304.5</v>
+      </c>
+      <c r="M201">
+        <v>284</v>
+      </c>
+      <c r="N201">
+        <v>157</v>
+      </c>
+      <c r="O201">
+        <v>352</v>
+      </c>
+      <c r="P201">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202">
+        <v>323.5</v>
+      </c>
+      <c r="C202">
+        <v>394</v>
+      </c>
+      <c r="D202">
+        <v>203</v>
+      </c>
+      <c r="E202">
+        <v>315</v>
+      </c>
+      <c r="F202">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="G202">
+        <v>119.9</v>
+      </c>
+      <c r="H202">
+        <v>21.7</v>
+      </c>
+      <c r="I202">
+        <v>148.8</v>
+      </c>
+      <c r="J202">
+        <v>512.4</v>
+      </c>
+      <c r="K202">
+        <v>1638.1</v>
+      </c>
+      <c r="L202">
+        <v>311.3</v>
+      </c>
+      <c r="M202">
+        <v>284</v>
+      </c>
+      <c r="N202">
+        <v>157</v>
+      </c>
+      <c r="O202">
+        <v>352</v>
+      </c>
+      <c r="P202">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" t="s">
+        <v>217</v>
+      </c>
+      <c r="B203">
+        <v>323</v>
+      </c>
+      <c r="C203">
+        <v>395</v>
+      </c>
+      <c r="D203">
+        <v>203</v>
+      </c>
+      <c r="E203">
+        <v>317</v>
+      </c>
+      <c r="F203">
+        <v>86.5</v>
+      </c>
+      <c r="G203">
+        <v>119.7</v>
+      </c>
+      <c r="H203">
+        <v>21.5</v>
+      </c>
+      <c r="I203">
+        <v>146.8</v>
+      </c>
+      <c r="J203">
+        <v>521.3</v>
+      </c>
+      <c r="K203">
+        <v>1653.1</v>
+      </c>
+      <c r="L203">
+        <v>324.5</v>
+      </c>
+      <c r="M203">
+        <v>283</v>
+      </c>
+      <c r="N203">
+        <v>156</v>
+      </c>
+      <c r="O203">
+        <v>351</v>
+      </c>
+      <c r="P203">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="A204" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204">
+        <v>324.5</v>
+      </c>
+      <c r="C204">
+        <v>397</v>
+      </c>
+      <c r="D204">
+        <v>201</v>
+      </c>
+      <c r="E204">
+        <v>320</v>
+      </c>
+      <c r="F204">
+        <v>86.3</v>
+      </c>
+      <c r="G204">
+        <v>119.9</v>
+      </c>
+      <c r="H204">
+        <v>26.6</v>
+      </c>
+      <c r="I204">
+        <v>149.2</v>
+      </c>
+      <c r="J204">
+        <v>525.3</v>
+      </c>
+      <c r="K204">
+        <v>1672.2</v>
+      </c>
+      <c r="L204">
+        <v>327.3</v>
+      </c>
+      <c r="M204">
+        <v>287</v>
+      </c>
+      <c r="N204">
+        <v>156</v>
+      </c>
+      <c r="O204">
+        <v>353</v>
+      </c>
+      <c r="P204">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -671,6 +671,24 @@
   </si>
   <si>
     <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11234,6 +11252,306 @@
         <v>161</v>
       </c>
     </row>
+    <row r="205" spans="1:16">
+      <c r="A205" t="s">
+        <v>219</v>
+      </c>
+      <c r="B205">
+        <v>325</v>
+      </c>
+      <c r="C205">
+        <v>397</v>
+      </c>
+      <c r="D205">
+        <v>199</v>
+      </c>
+      <c r="E205">
+        <v>323</v>
+      </c>
+      <c r="F205">
+        <v>86.7</v>
+      </c>
+      <c r="G205">
+        <v>119.1</v>
+      </c>
+      <c r="H205">
+        <v>34.1</v>
+      </c>
+      <c r="I205">
+        <v>150.6</v>
+      </c>
+      <c r="J205">
+        <v>526.5</v>
+      </c>
+      <c r="K205">
+        <v>1667.3</v>
+      </c>
+      <c r="L205">
+        <v>322.5</v>
+      </c>
+      <c r="M205">
+        <v>288</v>
+      </c>
+      <c r="N205">
+        <v>156</v>
+      </c>
+      <c r="O205">
+        <v>354</v>
+      </c>
+      <c r="P205">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206">
+        <v>325.2</v>
+      </c>
+      <c r="C206">
+        <v>397</v>
+      </c>
+      <c r="D206">
+        <v>202</v>
+      </c>
+      <c r="E206">
+        <v>318</v>
+      </c>
+      <c r="F206">
+        <v>86.7</v>
+      </c>
+      <c r="G206">
+        <v>119.1</v>
+      </c>
+      <c r="H206">
+        <v>37</v>
+      </c>
+      <c r="I206">
+        <v>151.6</v>
+      </c>
+      <c r="J206">
+        <v>510.9</v>
+      </c>
+      <c r="K206">
+        <v>1664.2</v>
+      </c>
+      <c r="L206">
+        <v>321.6</v>
+      </c>
+      <c r="M206">
+        <v>288</v>
+      </c>
+      <c r="N206">
+        <v>156</v>
+      </c>
+      <c r="O206">
+        <v>354</v>
+      </c>
+      <c r="P206">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" t="s">
+        <v>221</v>
+      </c>
+      <c r="B207">
+        <v>327.7</v>
+      </c>
+      <c r="C207">
+        <v>398</v>
+      </c>
+      <c r="D207">
+        <v>205</v>
+      </c>
+      <c r="E207">
+        <v>321</v>
+      </c>
+      <c r="F207">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="G207">
+        <v>118.2</v>
+      </c>
+      <c r="H207">
+        <v>38.5</v>
+      </c>
+      <c r="I207">
+        <v>157.3</v>
+      </c>
+      <c r="J207">
+        <v>509.1</v>
+      </c>
+      <c r="K207">
+        <v>1668.7</v>
+      </c>
+      <c r="L207">
+        <v>320.9</v>
+      </c>
+      <c r="M207">
+        <v>291</v>
+      </c>
+      <c r="N207">
+        <v>155</v>
+      </c>
+      <c r="O207">
+        <v>354</v>
+      </c>
+      <c r="P207">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208">
+        <v>324.7</v>
+      </c>
+      <c r="C208">
+        <v>397</v>
+      </c>
+      <c r="D208">
+        <v>200</v>
+      </c>
+      <c r="E208">
+        <v>319</v>
+      </c>
+      <c r="F208">
+        <v>85</v>
+      </c>
+      <c r="G208">
+        <v>116.6</v>
+      </c>
+      <c r="H208">
+        <v>34.1</v>
+      </c>
+      <c r="I208">
+        <v>154.4</v>
+      </c>
+      <c r="J208">
+        <v>509.4</v>
+      </c>
+      <c r="K208">
+        <v>1693.6</v>
+      </c>
+      <c r="L208">
+        <v>322</v>
+      </c>
+      <c r="M208">
+        <v>294</v>
+      </c>
+      <c r="N208">
+        <v>154</v>
+      </c>
+      <c r="O208">
+        <v>348</v>
+      </c>
+      <c r="P208">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16">
+      <c r="A209" t="s">
+        <v>223</v>
+      </c>
+      <c r="B209">
+        <v>326.8</v>
+      </c>
+      <c r="C209">
+        <v>401</v>
+      </c>
+      <c r="D209">
+        <v>201</v>
+      </c>
+      <c r="E209">
+        <v>322</v>
+      </c>
+      <c r="F209">
+        <v>82.2</v>
+      </c>
+      <c r="G209">
+        <v>117.1</v>
+      </c>
+      <c r="H209">
+        <v>39.5</v>
+      </c>
+      <c r="I209">
+        <v>156.5</v>
+      </c>
+      <c r="J209">
+        <v>514.6</v>
+      </c>
+      <c r="K209">
+        <v>1712.1</v>
+      </c>
+      <c r="L209">
+        <v>337.8</v>
+      </c>
+      <c r="M209">
+        <v>302</v>
+      </c>
+      <c r="N209">
+        <v>161</v>
+      </c>
+      <c r="O209">
+        <v>353</v>
+      </c>
+      <c r="P209">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16">
+      <c r="A210" t="s">
+        <v>224</v>
+      </c>
+      <c r="B210">
+        <v>326.4</v>
+      </c>
+      <c r="C210">
+        <v>404</v>
+      </c>
+      <c r="D210">
+        <v>198</v>
+      </c>
+      <c r="E210">
+        <v>319</v>
+      </c>
+      <c r="F210">
+        <v>81</v>
+      </c>
+      <c r="G210">
+        <v>114</v>
+      </c>
+      <c r="H210">
+        <v>35.6</v>
+      </c>
+      <c r="I210">
+        <v>155.9</v>
+      </c>
+      <c r="J210">
+        <v>507.2</v>
+      </c>
+      <c r="K210">
+        <v>1728.4</v>
+      </c>
+      <c r="L210">
+        <v>341.4</v>
+      </c>
+      <c r="M210">
+        <v>303</v>
+      </c>
+      <c r="N210">
+        <v>161</v>
+      </c>
+      <c r="O210">
+        <v>357</v>
+      </c>
+      <c r="P210">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P210"/>
+  <dimension ref="A1:P214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11552,6 +11564,206 @@
         <v>181</v>
       </c>
     </row>
+    <row r="211" spans="1:16">
+      <c r="A211" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211">
+        <v>329.8</v>
+      </c>
+      <c r="C211">
+        <v>408</v>
+      </c>
+      <c r="D211">
+        <v>204</v>
+      </c>
+      <c r="E211">
+        <v>320</v>
+      </c>
+      <c r="F211">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="G211">
+        <v>117.7</v>
+      </c>
+      <c r="H211">
+        <v>41.3</v>
+      </c>
+      <c r="I211">
+        <v>158.1</v>
+      </c>
+      <c r="J211">
+        <v>501.5</v>
+      </c>
+      <c r="K211">
+        <v>1740.7</v>
+      </c>
+      <c r="L211">
+        <v>344.7</v>
+      </c>
+      <c r="M211">
+        <v>308</v>
+      </c>
+      <c r="N211">
+        <v>163</v>
+      </c>
+      <c r="O211">
+        <v>361</v>
+      </c>
+      <c r="P211">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16">
+      <c r="A212" t="s">
+        <v>226</v>
+      </c>
+      <c r="B212">
+        <v>324.8</v>
+      </c>
+      <c r="C212">
+        <v>403</v>
+      </c>
+      <c r="D212">
+        <v>198</v>
+      </c>
+      <c r="E212">
+        <v>314</v>
+      </c>
+      <c r="F212">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="G212">
+        <v>112.9</v>
+      </c>
+      <c r="H212">
+        <v>40.5</v>
+      </c>
+      <c r="I212">
+        <v>153.9</v>
+      </c>
+      <c r="J212">
+        <v>491.4</v>
+      </c>
+      <c r="K212">
+        <v>1737.3</v>
+      </c>
+      <c r="L212">
+        <v>336.6</v>
+      </c>
+      <c r="M212">
+        <v>306</v>
+      </c>
+      <c r="N212">
+        <v>155</v>
+      </c>
+      <c r="O212">
+        <v>357</v>
+      </c>
+      <c r="P212">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16">
+      <c r="A213" t="s">
+        <v>227</v>
+      </c>
+      <c r="B213">
+        <v>327.5</v>
+      </c>
+      <c r="C213">
+        <v>405</v>
+      </c>
+      <c r="D213">
+        <v>202</v>
+      </c>
+      <c r="E213">
+        <v>315</v>
+      </c>
+      <c r="F213">
+        <v>83.2</v>
+      </c>
+      <c r="G213">
+        <v>117.5</v>
+      </c>
+      <c r="H213">
+        <v>41.5</v>
+      </c>
+      <c r="I213">
+        <v>157.7</v>
+      </c>
+      <c r="J213">
+        <v>484.9</v>
+      </c>
+      <c r="K213">
+        <v>1746</v>
+      </c>
+      <c r="L213">
+        <v>331.5</v>
+      </c>
+      <c r="M213">
+        <v>310</v>
+      </c>
+      <c r="N213">
+        <v>157</v>
+      </c>
+      <c r="O213">
+        <v>358</v>
+      </c>
+      <c r="P213">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16">
+      <c r="A214" t="s">
+        <v>228</v>
+      </c>
+      <c r="B214">
+        <v>329.1</v>
+      </c>
+      <c r="C214">
+        <v>406</v>
+      </c>
+      <c r="D214">
+        <v>205</v>
+      </c>
+      <c r="E214">
+        <v>313</v>
+      </c>
+      <c r="F214">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="G214">
+        <v>118.2</v>
+      </c>
+      <c r="H214">
+        <v>43</v>
+      </c>
+      <c r="I214">
+        <v>160.1</v>
+      </c>
+      <c r="J214">
+        <v>480.4</v>
+      </c>
+      <c r="K214">
+        <v>1725.7</v>
+      </c>
+      <c r="L214">
+        <v>331.4</v>
+      </c>
+      <c r="M214">
+        <v>313</v>
+      </c>
+      <c r="N214">
+        <v>160</v>
+      </c>
+      <c r="O214">
+        <v>362</v>
+      </c>
+      <c r="P214">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
